--- a/TrialData.xlsx
+++ b/TrialData.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MutualAll" localSheetId="0">Sheet1!$A$1:$AE$11</definedName>
+    <definedName name="MutualAll" localSheetId="0">Sheet1!$A$1:$P$6</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="14">
   <si>
     <t>Cluster</t>
   </si>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CJ110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" workbookViewId="0">
-      <selection activeCell="CH4" sqref="CH4"/>
+    <sheetView tabSelected="1" topLeftCell="BO88" workbookViewId="0">
+      <selection activeCell="CF110" sqref="CF110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -663,51 +663,6 @@
       <c r="O1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>2</v>
-      </c>
       <c r="CC1" t="s">
         <v>0</v>
       </c>
@@ -729,16 +684,19 @@
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>300</v>
+        <v>129</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -747,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="H2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -756,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="L2">
         <v>2</v>
@@ -765,74 +723,32 @@
         <v>3</v>
       </c>
       <c r="N2">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="O2">
         <v>2</v>
       </c>
-      <c r="P2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q2">
-        <v>54</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T2">
-        <v>43</v>
-      </c>
-      <c r="U2">
-        <v>2</v>
-      </c>
-      <c r="V2" t="s">
-        <v>3</v>
-      </c>
-      <c r="W2">
-        <v>41</v>
-      </c>
-      <c r="X2">
-        <v>2</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z2">
-        <v>71</v>
-      </c>
-      <c r="AA2">
-        <v>2</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC2">
-        <v>300</v>
-      </c>
       <c r="CC2" t="s">
         <v>3</v>
       </c>
       <c r="CD2">
         <f>SUMPRODUCT(--(MOD(COLUMN(A2:CA2)-COLUMN(A2),3)=0),--(A2:CA2=CC2))/20</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="CF2" s="1">
         <f>AVERAGE(B2,E2,H2,K2,AG2,AJ2,AM2,AP2,AS2,AV2,AY2,BB2,BE2,BH2,BK2,BN2,BQ2,BT2,BW2,BZ2)</f>
-        <v>134.75</v>
+        <v>101.5</v>
       </c>
       <c r="CH2">
         <f>AVERAGE(C2,F2,I2,L2,AH2,AK2,AN2,AQ2,AT2,AW2,AZ2,BC2,BF2,BI2,BL2,BO2,BR2,BU2,BX2,CA2)</f>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="CI2" s="1">
         <v>2.1597375690599998</v>
       </c>
       <c r="CJ2" s="4">
-        <f t="shared" ref="CJ2:CJ33" si="0">ABS(CH2-CI2)/CI2</f>
-        <v>7.3961564288351794E-2</v>
+        <f t="shared" ref="CJ2:CJ65" si="0">ABS(CH2-CI2)/CI2</f>
+        <v>0.18971636875230782</v>
       </c>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.3">
@@ -840,19 +756,19 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>300</v>
+        <v>165</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>300</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
         <v>6</v>
       </c>
       <c r="H3">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -861,63 +777,24 @@
         <v>4</v>
       </c>
       <c r="K3">
-        <v>300</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
         <v>4</v>
       </c>
       <c r="N3">
-        <v>300</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3">
-        <v>300</v>
-      </c>
-      <c r="S3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <v>33</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3">
-        <v>39</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z3">
-        <v>300</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC3">
-        <v>48</v>
-      </c>
-      <c r="AD3">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="CC3" t="s">
         <v>4</v>
       </c>
       <c r="CD3">
         <f t="shared" ref="CD3:CD66" si="1">SUMPRODUCT(--(MOD(COLUMN(A3:CA3)-COLUMN(A3),3)=0),--(A3:CA3=CC3))/20</f>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="CF3" s="1">
         <f t="shared" ref="CF3:CF66" si="2">AVERAGE(B3,E3,H3,K3,AG3,AJ3,AM3,AP3,AS3,AV3,AY3,BB3,BE3,BH3,BK3,BN3,BQ3,BT3,BW3,BZ3)</f>
-        <v>241.75</v>
+        <v>122.75</v>
       </c>
       <c r="CH3">
         <f t="shared" ref="CH3:CH66" si="3">AVERAGE(C3,F3,I3,L3,AH3,AK3,AN3,AQ3,AT3,AW3,AZ3,BC3,BF3,BI3,BL3,BO3,BR3,BU3,BX3,CA3)</f>
@@ -936,7 +813,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>18</v>
@@ -945,104 +822,56 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>90</v>
-      </c>
-      <c r="O4">
-        <v>16</v>
-      </c>
-      <c r="P4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>30</v>
-      </c>
-      <c r="R4">
-        <v>18</v>
-      </c>
-      <c r="S4" t="s">
-        <v>6</v>
-      </c>
-      <c r="T4">
-        <v>26</v>
-      </c>
-      <c r="U4">
-        <v>16</v>
-      </c>
-      <c r="V4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W4">
-        <v>66</v>
-      </c>
-      <c r="X4">
-        <v>18</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4">
-        <v>35</v>
-      </c>
-      <c r="AA4">
-        <v>16</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC4">
-        <v>213</v>
-      </c>
-      <c r="AD4">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="CC4" t="s">
         <v>4</v>
       </c>
       <c r="CD4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="CF4" s="1">
         <f t="shared" si="2"/>
-        <v>51.25</v>
+        <v>41.75</v>
       </c>
       <c r="CH4">
         <f t="shared" si="3"/>
-        <v>16.75</v>
+        <v>15.5</v>
       </c>
       <c r="CI4" s="1">
         <v>14.830524861900001</v>
       </c>
       <c r="CJ4" s="4">
         <f t="shared" si="0"/>
-        <v>0.12942732344093769</v>
+        <v>4.5141702288628911E-2</v>
       </c>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.3">
@@ -1050,72 +879,42 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>300</v>
+        <v>193</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
       </c>
       <c r="K5">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="M5" t="s">
         <v>4</v>
       </c>
       <c r="N5">
-        <v>300</v>
-      </c>
-      <c r="P5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q5">
-        <v>300</v>
-      </c>
-      <c r="S5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T5">
-        <v>300</v>
-      </c>
-      <c r="V5" t="s">
-        <v>4</v>
-      </c>
-      <c r="W5">
-        <v>300</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z5">
-        <v>300</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC5">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="CC5" t="s">
         <v>4</v>
       </c>
       <c r="CD5">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="CF5" s="1">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>178</v>
       </c>
       <c r="CH5" t="e">
         <f t="shared" si="3"/>
@@ -1131,453 +930,156 @@
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>300</v>
+        <v>35</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>300</v>
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>300</v>
+        <v>49</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>300</v>
-      </c>
-      <c r="P6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="Q6">
-        <v>43</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6" t="s">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>300</v>
-      </c>
-      <c r="V6" t="s">
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <v>300</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z6">
-        <v>300</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC6">
-        <v>300</v>
-      </c>
       <c r="CC6" t="s">
         <v>4</v>
       </c>
       <c r="CD6">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="CF6" s="1">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="CH6" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>48</v>
+      </c>
+      <c r="CH6">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="CI6" s="1">
         <v>3.0231779005499999</v>
       </c>
-      <c r="CJ6" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="CJ6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.17305561159825206</v>
       </c>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>34</v>
-      </c>
-      <c r="C7">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-      <c r="F7">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>300</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7">
-        <v>300</v>
-      </c>
-      <c r="M7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>300</v>
-      </c>
-      <c r="P7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q7">
-        <v>29</v>
-      </c>
-      <c r="R7">
-        <v>13</v>
-      </c>
-      <c r="S7" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7">
-        <v>300</v>
-      </c>
-      <c r="V7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <v>213</v>
-      </c>
-      <c r="X7">
-        <v>14</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z7">
-        <v>45</v>
-      </c>
-      <c r="AA7">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC7">
-        <v>300</v>
-      </c>
       <c r="CC7" t="s">
         <v>4</v>
       </c>
       <c r="CD7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="CF7" s="1">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="CH7">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="CF7" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH7" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="CI7" s="1">
         <v>10.751299171299999</v>
       </c>
-      <c r="CJ7" s="4">
-        <f t="shared" si="0"/>
-        <v>2.3132165214404386E-2</v>
+      <c r="CJ7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>300</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>76</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8">
-        <v>14</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
-      </c>
-      <c r="K8">
-        <v>300</v>
-      </c>
-      <c r="M8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N8">
-        <v>54</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q8">
-        <v>300</v>
-      </c>
-      <c r="S8" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>300</v>
-      </c>
-      <c r="V8" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8">
-        <v>115</v>
-      </c>
-      <c r="X8">
-        <v>4</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8">
-        <v>25</v>
-      </c>
-      <c r="AA8">
-        <v>6</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC8">
-        <v>52</v>
-      </c>
-      <c r="AD8">
-        <v>6</v>
-      </c>
       <c r="CC8" t="s">
         <v>4</v>
       </c>
       <c r="CD8">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="CF8" s="1">
-        <f t="shared" si="2"/>
-        <v>172.5</v>
-      </c>
-      <c r="CH8">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
+        <v>0</v>
+      </c>
+      <c r="CF8" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="CI8" s="1">
         <v>3.14277845304</v>
       </c>
-      <c r="CJ8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.75004381701798506</v>
+      <c r="CJ8" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>300</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>300</v>
-      </c>
-      <c r="J9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>300</v>
-      </c>
-      <c r="M9" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9">
-        <v>300</v>
-      </c>
-      <c r="P9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9">
-        <v>300</v>
-      </c>
-      <c r="S9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <v>125</v>
-      </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
-      <c r="V9" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9">
-        <v>300</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9">
-        <v>300</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC9">
-        <v>300</v>
-      </c>
       <c r="CC9" t="s">
         <v>4</v>
       </c>
       <c r="CD9">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="CF9" s="1">
-        <f t="shared" si="2"/>
-        <v>234.5</v>
-      </c>
-      <c r="CH9">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="CF9" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="CI9" s="1">
         <v>1.6665961326000001</v>
       </c>
-      <c r="CJ9" s="4">
-        <f t="shared" si="0"/>
-        <v>0.80007618001597169</v>
+      <c r="CJ9" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>300</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>300</v>
-      </c>
-      <c r="G10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>300</v>
-      </c>
-      <c r="J10" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>300</v>
-      </c>
-      <c r="M10" t="s">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>300</v>
-      </c>
-      <c r="P10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <v>300</v>
-      </c>
-      <c r="S10" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <v>300</v>
-      </c>
-      <c r="V10" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10">
-        <v>300</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10">
-        <v>300</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC10">
-        <v>300</v>
-      </c>
       <c r="CC10" t="s">
         <v>4</v>
       </c>
       <c r="CD10">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="CF10" s="1">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="CF10" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="CH10" t="e">
         <f t="shared" si="3"/>
@@ -1592,93 +1094,27 @@
       </c>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>300</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>300</v>
-      </c>
-      <c r="J11" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11">
-        <v>300</v>
-      </c>
-      <c r="M11" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11">
-        <v>17</v>
-      </c>
-      <c r="O11">
-        <v>4</v>
-      </c>
-      <c r="P11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q11">
-        <v>300</v>
-      </c>
-      <c r="S11" t="s">
-        <v>4</v>
-      </c>
-      <c r="T11">
-        <v>300</v>
-      </c>
-      <c r="V11" t="s">
-        <v>4</v>
-      </c>
-      <c r="W11">
-        <v>300</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z11">
-        <v>300</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC11">
-        <v>300</v>
-      </c>
       <c r="CC11" t="s">
         <v>4</v>
       </c>
       <c r="CD11">
         <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="CF11" s="1">
-        <f t="shared" si="2"/>
-        <v>240.5</v>
-      </c>
-      <c r="CH11">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="CF11" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="CI11" s="1">
         <v>0.67121767955800005</v>
       </c>
-      <c r="CJ11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9796592981832797</v>
+      <c r="CJ11" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.3">
@@ -2229,7 +1665,7 @@
         <v>4.4971469613300004</v>
       </c>
       <c r="CJ34" s="4" t="e">
-        <f t="shared" ref="CJ34:CJ65" si="4">ABS(CH34-CI34)/CI34</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2253,7 +1689,7 @@
         <v>13.608434254100001</v>
       </c>
       <c r="CJ35" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2277,7 +1713,7 @@
         <v>4.5189027624299998</v>
       </c>
       <c r="CJ36" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2301,7 +1737,7 @@
         <v>11.0860085635</v>
       </c>
       <c r="CJ37" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2325,7 +1761,7 @@
         <v>5.9046795580099998</v>
       </c>
       <c r="CJ38" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2349,7 +1785,7 @@
         <v>8.5490538673999996</v>
       </c>
       <c r="CJ39" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2373,7 +1809,7 @@
         <v>5.5274077348099997</v>
       </c>
       <c r="CJ40" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2397,7 +1833,7 @@
         <v>14.6680839779</v>
       </c>
       <c r="CJ41" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2421,7 +1857,7 @@
         <v>18.5423174033</v>
       </c>
       <c r="CJ42" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2445,7 +1881,7 @@
         <v>5.3016104972400004</v>
       </c>
       <c r="CJ43" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2469,7 +1905,7 @@
         <v>8.9924627071799996</v>
       </c>
       <c r="CJ44" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2493,7 +1929,7 @@
         <v>12.2662093923</v>
       </c>
       <c r="CJ45" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2517,7 +1953,7 @@
         <v>7.0357914364600003</v>
       </c>
       <c r="CJ46" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2541,7 +1977,7 @@
         <v>7.6726723756900004</v>
       </c>
       <c r="CJ47" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2565,7 +2001,7 @@
         <v>9.1696361878499992</v>
       </c>
       <c r="CJ48" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2589,7 +2025,7 @@
         <v>3.0059196132600001</v>
       </c>
       <c r="CJ49" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2613,7 +2049,7 @@
         <v>4.8460632596700002</v>
       </c>
       <c r="CJ50" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2637,7 +2073,7 @@
         <v>4.26636049724</v>
       </c>
       <c r="CJ51" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2661,7 +2097,7 @@
         <v>1.9750519337000001</v>
       </c>
       <c r="CJ52" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2685,7 +2121,7 @@
         <v>6.3506646408799998</v>
       </c>
       <c r="CJ53" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2709,7 +2145,7 @@
         <v>4.3704839779000002</v>
       </c>
       <c r="CJ54" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2733,7 +2169,7 @@
         <v>7.0571182320399997</v>
       </c>
       <c r="CJ55" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2757,7 +2193,7 @@
         <v>6.6575088397800002</v>
       </c>
       <c r="CJ56" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2781,7 +2217,7 @@
         <v>4.2263190607699999</v>
       </c>
       <c r="CJ57" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2805,7 +2241,7 @@
         <v>1.6640486187800001</v>
       </c>
       <c r="CJ58" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2829,7 +2265,7 @@
         <v>10.896612430899999</v>
       </c>
       <c r="CJ59" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2853,7 +2289,7 @@
         <v>10.085542541400001</v>
       </c>
       <c r="CJ60" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2877,7 +2313,7 @@
         <v>3.6121546961300002</v>
       </c>
       <c r="CJ61" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2901,7 +2337,7 @@
         <v>11.1178779006</v>
       </c>
       <c r="CJ62" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2925,7 +2361,7 @@
         <v>5.7500005524900004</v>
       </c>
       <c r="CJ63" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2949,7 +2385,7 @@
         <v>3.87681270718</v>
       </c>
       <c r="CJ64" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2973,7 +2409,7 @@
         <v>4.5525966850800001</v>
       </c>
       <c r="CJ65" s="4" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -2997,7 +2433,7 @@
         <v>5.4655455801099997</v>
       </c>
       <c r="CJ66" s="4" t="e">
-        <f t="shared" ref="CJ66:CJ97" si="5">ABS(CH66-CI66)/CI66</f>
+        <f t="shared" ref="CJ66:CJ101" si="4">ABS(CH66-CI66)/CI66</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3006,22 +2442,22 @@
         <v>4</v>
       </c>
       <c r="CD67">
-        <f t="shared" ref="CD67:CD101" si="6">SUMPRODUCT(--(MOD(COLUMN(A67:CA67)-COLUMN(A67),3)=0),--(A67:CA67=CC67))/20</f>
+        <f t="shared" ref="CD67:CD101" si="5">SUMPRODUCT(--(MOD(COLUMN(A67:CA67)-COLUMN(A67),3)=0),--(A67:CA67=CC67))/20</f>
         <v>0</v>
       </c>
       <c r="CF67" s="1" t="e">
-        <f t="shared" ref="CF67:CF101" si="7">AVERAGE(B67,E67,H67,K67,AG67,AJ67,AM67,AP67,AS67,AV67,AY67,BB67,BE67,BH67,BK67,BN67,BQ67,BT67,BW67,BZ67)</f>
+        <f t="shared" ref="CF67:CF101" si="6">AVERAGE(B67,E67,H67,K67,AG67,AJ67,AM67,AP67,AS67,AV67,AY67,BB67,BE67,BH67,BK67,BN67,BQ67,BT67,BW67,BZ67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CH67" t="e">
-        <f t="shared" ref="CH67:CH101" si="8">AVERAGE(C67,F67,I67,L67,AH67,AK67,AN67,AQ67,AT67,AW67,AZ67,BC67,BF67,BI67,BL67,BO67,BR67,BU67,BX67,CA67)</f>
+        <f t="shared" ref="CH67:CH101" si="7">AVERAGE(C67,F67,I67,L67,AH67,AK67,AN67,AQ67,AT67,AW67,AZ67,BC67,BF67,BI67,BL67,BO67,BR67,BU67,BX67,CA67)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI67" s="1">
         <v>5.3662096685099998</v>
       </c>
       <c r="CJ67" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3030,22 +2466,22 @@
         <v>4</v>
       </c>
       <c r="CD68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF68" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF68" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH68" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH68" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI68" s="1">
         <v>8.3814828729300004</v>
       </c>
       <c r="CJ68" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3054,22 +2490,22 @@
         <v>5</v>
       </c>
       <c r="CD69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF69" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF69" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH69" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH69" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI69" s="1">
         <v>4.80997154696</v>
       </c>
       <c r="CJ69" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3078,22 +2514,22 @@
         <v>4</v>
       </c>
       <c r="CD70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF70" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF70" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH70" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH70" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI70" s="1">
         <v>6.0506627071799999</v>
       </c>
       <c r="CJ70" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3102,22 +2538,22 @@
         <v>5</v>
       </c>
       <c r="CD71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF71" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF71" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH71" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH71" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI71" s="1">
         <v>8.8928229281799993</v>
       </c>
       <c r="CJ71" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3126,22 +2562,22 @@
         <v>5</v>
       </c>
       <c r="CD72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF72" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF72" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH72" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH72" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI72" s="1">
         <v>4.5850209944799998</v>
       </c>
       <c r="CJ72" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3150,22 +2586,22 @@
         <v>5</v>
       </c>
       <c r="CD73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF73" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF73" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH73" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH73" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI73" s="1">
         <v>8.5924883977899995</v>
       </c>
       <c r="CJ73" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3174,22 +2610,22 @@
         <v>4</v>
       </c>
       <c r="CD74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF74" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF74" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH74" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH74" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI74" s="1">
         <v>7.0685104972400001</v>
       </c>
       <c r="CJ74" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3198,22 +2634,22 @@
         <v>4</v>
       </c>
       <c r="CD75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF75" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF75" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH75" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH75" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI75" s="1">
         <v>4.94963867403</v>
       </c>
       <c r="CJ75" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3222,22 +2658,22 @@
         <v>4</v>
       </c>
       <c r="CD76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF76" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF76" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH76" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH76" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI76" s="1">
         <v>10.591498895000001</v>
       </c>
       <c r="CJ76" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3246,22 +2682,22 @@
         <v>4</v>
       </c>
       <c r="CD77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF77" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF77" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH77" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH77" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI77" s="1">
         <v>4.7637414364600001</v>
       </c>
       <c r="CJ77" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3270,22 +2706,22 @@
         <v>6</v>
       </c>
       <c r="CD78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF78" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF78" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH78" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH78" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI78" s="1">
         <v>1.45287099448</v>
       </c>
       <c r="CJ78" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3294,22 +2730,22 @@
         <v>6</v>
       </c>
       <c r="CD79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF79" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF79" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH79" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH79" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI79" s="1">
         <v>2.0629723756899998</v>
       </c>
       <c r="CJ79" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3318,22 +2754,22 @@
         <v>5</v>
       </c>
       <c r="CD80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF80" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF80" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH80" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH80" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI80" s="1">
         <v>7.5539060773499997</v>
       </c>
       <c r="CJ80" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3342,22 +2778,22 @@
         <v>4</v>
       </c>
       <c r="CD81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF81" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF81" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH81" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH81" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI81" s="1">
         <v>1.1173480662999999</v>
       </c>
       <c r="CJ81" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3366,22 +2802,22 @@
         <v>4</v>
       </c>
       <c r="CD82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF82" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF82" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH82" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH82" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI82" s="1">
         <v>8.8923977900600004</v>
       </c>
       <c r="CJ82" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3390,22 +2826,22 @@
         <v>6</v>
       </c>
       <c r="CD83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF83" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF83" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH83" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH83" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI83" s="1">
         <v>2.6815690607699998</v>
       </c>
       <c r="CJ83" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3414,22 +2850,22 @@
         <v>9</v>
       </c>
       <c r="CD84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF84" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF84" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH84" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH84" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI84" s="1">
         <v>0.80024171270699995</v>
       </c>
       <c r="CJ84" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3438,22 +2874,22 @@
         <v>4</v>
       </c>
       <c r="CD85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF85" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF85" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH85" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH85" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI85" s="1">
         <v>8.1414475138100002</v>
       </c>
       <c r="CJ85" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3462,22 +2898,22 @@
         <v>6</v>
       </c>
       <c r="CD86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF86" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF86" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH86" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH86" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI86" s="1">
         <v>11.730043093900001</v>
       </c>
       <c r="CJ86" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3486,22 +2922,22 @@
         <v>4</v>
       </c>
       <c r="CD87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF87" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF87" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH87" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH87" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI87" s="1">
         <v>10.875138121499999</v>
       </c>
       <c r="CJ87" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3510,22 +2946,22 @@
         <v>3</v>
       </c>
       <c r="CD88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF88" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF88" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH88" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH88" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI88" s="1">
         <v>2.09325966851</v>
       </c>
       <c r="CJ88" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3534,22 +2970,22 @@
         <v>4</v>
       </c>
       <c r="CD89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF89" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF89" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH89" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH89" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI89" s="1">
         <v>6.75156132597</v>
       </c>
       <c r="CJ89" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3558,22 +2994,22 @@
         <v>4</v>
       </c>
       <c r="CD90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF90" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF90" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH90" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH90" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI90" s="1">
         <v>3.65226298343</v>
       </c>
       <c r="CJ90" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3582,22 +3018,22 @@
         <v>4</v>
       </c>
       <c r="CD91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF91" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF91" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH91" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH91" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI91" s="1">
         <v>1.61878674033</v>
       </c>
       <c r="CJ91" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3606,22 +3042,22 @@
         <v>3</v>
       </c>
       <c r="CD92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF92" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF92" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH92" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH92" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI92" s="1">
         <v>15.126351933700001</v>
       </c>
       <c r="CJ92" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3630,22 +3066,22 @@
         <v>9</v>
       </c>
       <c r="CD93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF93" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF93" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH93" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH93" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI93" s="1">
         <v>2.30001906077</v>
       </c>
       <c r="CJ93" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3654,22 +3090,22 @@
         <v>4</v>
       </c>
       <c r="CD94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF94" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF94" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH94" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH94" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI94" s="1">
         <v>6.5154096685100003</v>
       </c>
       <c r="CJ94" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3678,22 +3114,22 @@
         <v>4</v>
       </c>
       <c r="CD95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF95" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF95" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH95" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH95" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI95" s="1">
         <v>7.9316812154700003</v>
       </c>
       <c r="CJ95" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3702,22 +3138,22 @@
         <v>4</v>
       </c>
       <c r="CD96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF96" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF96" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH96" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH96" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI96" s="1">
         <v>9.38060552486</v>
       </c>
       <c r="CJ96" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3726,22 +3162,22 @@
         <v>4</v>
       </c>
       <c r="CD97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF97" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF97" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH97" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH97" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI97" s="1">
         <v>6.2937472375699999</v>
       </c>
       <c r="CJ97" s="4" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3750,22 +3186,22 @@
         <v>4</v>
       </c>
       <c r="CD98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF98" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF98" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH98" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH98" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI98" s="1">
         <v>1.9119198895</v>
       </c>
       <c r="CJ98" s="4" t="e">
-        <f t="shared" ref="CJ98:CJ101" si="9">ABS(CH98-CI98)/CI98</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3774,22 +3210,22 @@
         <v>4</v>
       </c>
       <c r="CD99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF99" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF99" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH99" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH99" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI99" s="1">
         <v>8.0352447513800005</v>
       </c>
       <c r="CJ99" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3798,22 +3234,22 @@
         <v>4</v>
       </c>
       <c r="CD100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF100" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF100" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH100" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH100" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI100" s="1">
         <v>9.2187157458600009</v>
       </c>
       <c r="CJ100" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3822,22 +3258,22 @@
         <v>4</v>
       </c>
       <c r="CD101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF101" s="1" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CF101" s="1" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CH101" t="e">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CH101" t="e">
-        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CI101" s="1">
         <v>2.6797292817699998</v>
       </c>
       <c r="CJ101" s="4" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3850,10 +3286,10 @@
       </c>
       <c r="CD103" s="3">
         <f>AVERAGE(CD92,CD88,CD59,CD44,CD39,CD34,CD25,CD13,CD6,CD2)</f>
-        <v>8.5000000000000006E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="CF103" s="1" t="e">
-        <f t="shared" ref="CF103" si="10">AVERAGE(CF92,CF88,CF59,CF44,CF39,CF34,CF25,CF13,CF6,CF2)</f>
+        <f t="shared" ref="CF103" si="8">AVERAGE(CF92,CF88,CF59,CF44,CF39,CF34,CF25,CF13,CF6,CF2)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI103" s="2"/>
@@ -3867,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="CF104" s="1" t="e">
-        <f t="shared" ref="CF104" si="11">AVERAGE(CF80,CF73,CF72,CF71,CF69)</f>
+        <f t="shared" ref="CF104" si="9">AVERAGE(CF80,CF73,CF72,CF71,CF69)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI104" s="2"/>
@@ -3881,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="CF105" s="1" t="e">
-        <f t="shared" ref="CF105" si="12">AVERAGE(CF86,CF83,CF79,CF78,CF65,CF60,CF41,CF18)</f>
+        <f t="shared" ref="CF105" si="10">AVERAGE(CF86,CF83,CF79,CF78,CF65,CF60,CF41,CF18)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI105" s="2"/>
@@ -3895,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="CF106" s="1" t="e">
-        <f t="shared" ref="CF106" si="13">AVERAGE(CF66,CF57,CF54,CF28)</f>
+        <f t="shared" ref="CF106" si="11">AVERAGE(CF66,CF57,CF54,CF28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI106" s="2"/>
@@ -3909,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="CF107" s="1" t="e">
-        <f t="shared" ref="CF107" si="14">AVERAGE(CF93,CF84,CF37)</f>
+        <f t="shared" ref="CF107" si="12">AVERAGE(CF93,CF84,CF37)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI107" s="2"/>
@@ -3923,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="CF108" s="1" t="e">
-        <f t="shared" ref="CF108" si="15">AVERAGE(CF64,CF62,CF52,CF38)</f>
+        <f t="shared" ref="CF108" si="13">AVERAGE(CF64,CF62,CF52,CF38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CI108" s="3"/>
@@ -3934,14 +3370,14 @@
       </c>
       <c r="CD109" s="3">
         <f>AVERAGE(CD101,CD100,CD99,CD98,CD97,CD96,CD95,CD94,CD91,CD90,CD89,CD87,CD85,CD82,CD81,CD77,CD76,CD75,CD74,CD70,CD68,CD67,CD63,CD61,CD58,CD56,CD55,CD53,CD51,CD50,CD49,CD48,CD47,CD46,CD45,CD43,CD42,CD40,CD36,CD35,CD33,CD32,CD31,CD30,CD29,CD27,CD26,CD24,CD23,CD22,CD21,CD20,CD19,CD17,CD16,CD15,CD14,CD12,CD11,CD10,CD9,CD8,CD7,CD5,CD4,CD3)</f>
-        <v>3.8636363636363635E-2</v>
+        <v>7.575757575757576E-3</v>
       </c>
       <c r="CF109" s="3"/>
     </row>
     <row r="110" spans="81:88" x14ac:dyDescent="0.3">
       <c r="CD110" s="3">
         <f>AVERAGE(CD103:CD108)</f>
-        <v>1.4166666666666668E-2</v>
+        <v>4.1666666666666666E-3</v>
       </c>
       <c r="CF110" s="1" t="e">
         <f>AVERAGE(CF2:CF101)</f>
